--- a/OldT.xlsx
+++ b/OldT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TransitusNexGen15\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C352D3-DC07-4843-A9BB-E805F9D34E90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC8948F-D050-49A1-8223-C321545B3591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="3075" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,6 +829,9 @@
       <c r="H15" t="s">
         <v>17</v>
       </c>
+      <c r="I15" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
